--- a/biology/Zoologie/Faune_de_France_(collection_d'ouvrages)/Faune_de_France_(collection_d'ouvrages).xlsx
+++ b/biology/Zoologie/Faune_de_France_(collection_d'ouvrages)/Faune_de_France_(collection_d'ouvrages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faune_de_France_(collection_d%27ouvrages)</t>
+          <t>Faune_de_France_(collection_d'ouvrages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lancée en 1921 par la Fédération française des sociétés de sciences naturelles, la collection Faune de France fut éditée de 1921 à 1966 (nos  1 à 68) par les éditions Lechevalier, en collaboration, notamment, avec le Muséum national d'histoire naturelle, le Centre national de la recherche scientifique (CNRS) et l'Institut national de la recherche agronomique (INRA). Les publications sont interrompues de 1967 à 1982. En 1983, la collection prend un second départ, la Fédération française des sociétés de sciences naturelles en devenant directement l'éditeur. De 1983 à 2015, les volumes 69 à 97 sont réalisés.
 Avec l'avènement d'internet et en accord avec ses statuts, la Fédération a décidé de créer une bibliothèque virtuelle numérique et met gracieusement à disposition de la communauté naturaliste tous les ouvrages épuisés de la collection et qu’elle ne souhaite pas rééditer (voir en bas de page).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faune_de_France_(collection_d%27ouvrages)</t>
+          <t>Faune_de_France_(collection_d'ouvrages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Volumes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Volume n° 1 - Jean Baptiste François René Koehler (1860-1931) - Échinodermes. 1921. épuisé
 Volume n° 2 - Paul Paris (1875-1938) - Oiseaux. 1921. épuisé
